--- a/public/excel/templates/探索营名单导入模板.xlsx
+++ b/public/excel/templates/探索营名单导入模板.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1880" yWindow="-23000" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="临沂三中孩子名单" sheetId="1" r:id="rId1"/>
+    <sheet name="孩子名单" sheetId="1" r:id="rId1"/>
     <sheet name="选项规则表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>序号</t>
   </si>
@@ -54,9 +54,6 @@
     <t>监护人</t>
   </si>
   <si>
-    <t>推荐理由</t>
-  </si>
-  <si>
     <t>汉族-1</t>
     <rPh sb="0" eb="1">
       <t>han'zu</t>
@@ -445,6 +442,154 @@
     <t>珞巴族-56</t>
     <rPh sb="0" eb="1">
       <t>luo'ba'zu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父子</t>
+    <rPh sb="0" eb="1">
+      <t>fu'zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>母子</t>
+    <rPh sb="0" eb="1">
+      <t>mu'zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父女</t>
+    <rPh sb="0" eb="1">
+      <t>fu'nv</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>母女</t>
+    <rPh sb="0" eb="1">
+      <t>mu'nv</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖孙</t>
+    <rPh sb="0" eb="1">
+      <t>zu'sun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舅甥</t>
+    <rPh sb="0" eb="1">
+      <t>jiu'sheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <rPh sb="0" eb="1">
+      <t>qi'ta</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高</t>
+    <rPh sb="0" eb="1">
+      <t>shen'gao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <rPh sb="0" eb="1">
+      <t>ti'zhong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监护人身份证</t>
+    <rPh sb="0" eb="1">
+      <t>jian'hu'ren</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shen'fen'zheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与监护人关系</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jian'hu'ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guan'xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育阶段</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'duan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级</t>
+    <rPh sb="0" eb="1">
+      <t>nian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级名称</t>
+    <rPh sb="0" eb="1">
+      <t>ban'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mign'cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初中</t>
+    <rPh sb="0" eb="1">
+      <t>chu'zhong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中</t>
+    <rPh sb="0" eb="1">
+      <t>gao'zhong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年级</t>
+    <rPh sb="0" eb="1">
+      <t>yi'nian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <rPh sb="0" eb="1">
+      <t>er'nian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年级</t>
+    <rPh sb="0" eb="1">
+      <t>san'nian'ji</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -779,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -791,17 +936,19 @@
     <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20" style="1" customWidth="1"/>
+    <col min="16" max="17" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -815,21 +962,39 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -840,12 +1005,30 @@
   <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>选项规则表!$A$1:$A$56</xm:f>
           </x14:formula1>
           <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>选项规则表!$F$1:$F$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>O1:O1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>选项规则表!$H$1:$H$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>选项规则表!$I$1:$I$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -855,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -866,129 +1049,165 @@
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -996,7 +1215,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -1004,7 +1223,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -1012,7 +1231,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -1020,7 +1239,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -1028,7 +1247,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -1036,7 +1255,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -1044,7 +1263,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -1052,7 +1271,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -1060,7 +1279,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -1068,7 +1287,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -1076,7 +1295,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -1084,7 +1303,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>26</v>
@@ -1092,7 +1311,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -1100,7 +1319,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -1108,7 +1327,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>29</v>
@@ -1116,7 +1335,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -1124,7 +1343,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -1132,7 +1351,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -1140,7 +1359,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -1148,7 +1367,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -1156,7 +1375,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -1164,7 +1383,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>38</v>
@@ -1172,7 +1391,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -1180,7 +1399,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -1188,7 +1407,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>41</v>
@@ -1196,7 +1415,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>42</v>
@@ -1204,7 +1423,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43">
         <v>43</v>
@@ -1212,7 +1431,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44">
         <v>44</v>
@@ -1220,7 +1439,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>45</v>
@@ -1228,7 +1447,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>46</v>
@@ -1236,7 +1455,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47">
         <v>47</v>
@@ -1244,7 +1463,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48">
         <v>48</v>
@@ -1252,7 +1471,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>49</v>
@@ -1260,7 +1479,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50">
         <v>50</v>
@@ -1268,7 +1487,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>51</v>
@@ -1276,7 +1495,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>52</v>
@@ -1284,7 +1503,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53">
         <v>53</v>
@@ -1292,7 +1511,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54">
         <v>54</v>
@@ -1300,7 +1519,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>55</v>
@@ -1308,7 +1527,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56">
         <v>56</v>

--- a/public/excel/templates/探索营名单导入模板.xlsx
+++ b/public/excel/templates/探索营名单导入模板.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>序号</t>
   </si>
@@ -42,13 +42,7 @@
     <t>民族</t>
   </si>
   <si>
-    <t>班主任</t>
-  </si>
-  <si>
     <t>联系方式</t>
-  </si>
-  <si>
-    <t>自我介绍</t>
   </si>
   <si>
     <t>监护人</t>
@@ -598,7 +592,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -613,6 +607,11 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -636,13 +635,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -924,31 +924,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20" style="1" customWidth="1"/>
-    <col min="16" max="17" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="5" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" customWidth="1"/>
+    <col min="13" max="14" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -962,44 +962,38 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="C2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -1016,7 +1010,7 @@
           <x14:formula1>
             <xm:f>选项规则表!$F$1:$F$7</xm:f>
           </x14:formula1>
-          <xm:sqref>O1:O1048576</xm:sqref>
+          <xm:sqref>L1:L1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -1051,99 +1045,99 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
         <v>78</v>
-      </c>
-      <c r="I1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
         <v>79</v>
-      </c>
-      <c r="I2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1151,7 +1145,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -1159,7 +1153,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -1167,7 +1161,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -1175,7 +1169,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -1183,7 +1177,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -1191,7 +1185,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -1199,7 +1193,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -1207,7 +1201,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -1215,7 +1209,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -1223,7 +1217,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -1231,7 +1225,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -1239,7 +1233,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -1247,7 +1241,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -1255,7 +1249,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -1263,7 +1257,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -1271,7 +1265,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -1279,7 +1273,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -1287,7 +1281,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -1295,7 +1289,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -1303,7 +1297,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>26</v>
@@ -1311,7 +1305,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -1319,7 +1313,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -1327,7 +1321,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>29</v>
@@ -1335,7 +1329,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -1343,7 +1337,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -1351,7 +1345,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -1359,7 +1353,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -1367,7 +1361,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -1375,7 +1369,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -1383,7 +1377,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>38</v>
@@ -1391,7 +1385,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -1399,7 +1393,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -1407,7 +1401,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>41</v>
@@ -1415,7 +1409,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>42</v>
@@ -1423,7 +1417,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>43</v>
@@ -1431,7 +1425,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <v>44</v>
@@ -1439,7 +1433,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>45</v>
@@ -1447,7 +1441,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46">
         <v>46</v>
@@ -1455,7 +1449,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B47">
         <v>47</v>
@@ -1463,7 +1457,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>48</v>
@@ -1471,7 +1465,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>49</v>
@@ -1479,7 +1473,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>50</v>
@@ -1487,7 +1481,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>51</v>
@@ -1495,7 +1489,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>52</v>
@@ -1503,7 +1497,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>53</v>
@@ -1511,7 +1505,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <v>54</v>
@@ -1519,7 +1513,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>55</v>
@@ -1527,7 +1521,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B56">
         <v>56</v>

--- a/public/excel/templates/探索营名单导入模板.xlsx
+++ b/public/excel/templates/探索营名单导入模板.xlsx
@@ -33,21 +33,9 @@
     <t>序号</t>
   </si>
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>身份证号</t>
-  </si>
-  <si>
     <t>民族</t>
   </si>
   <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>监护人</t>
-  </si>
-  <si>
     <t>汉族-1</t>
     <rPh sb="0" eb="1">
       <t>han'zu</t>
@@ -503,7 +491,93 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>监护人身份证</t>
+    <t>与监护人关系</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jian'hu'ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guan'xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育阶段</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'duan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级</t>
+    <rPh sb="0" eb="1">
+      <t>nian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级名称</t>
+    <rPh sb="0" eb="1">
+      <t>ban'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mign'cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初中</t>
+    <rPh sb="0" eb="1">
+      <t>chu'zhong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中</t>
+    <rPh sb="0" eb="1">
+      <t>gao'zhong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年级</t>
+    <rPh sb="0" eb="1">
+      <t>yi'nian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <rPh sb="0" eb="1">
+      <t>er'nian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年级</t>
+    <rPh sb="0" eb="1">
+      <t>san'nian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名(必填)</t>
+    <rPh sb="3" eb="4">
+      <t>bi'tian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监护人身份证(必填)</t>
     <rPh sb="0" eb="1">
       <t>jian'hu'ren</t>
     </rPh>
@@ -513,78 +587,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>与监护人关系</t>
-    <rPh sb="0" eb="1">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>jian'hu'ren</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>guan'xi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>教育阶段</t>
-    <rPh sb="0" eb="1">
-      <t>jiao'yu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'duan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年级</t>
-    <rPh sb="0" eb="1">
-      <t>nian'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级名称</t>
-    <rPh sb="0" eb="1">
-      <t>ban'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mign'cheng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初中</t>
-    <rPh sb="0" eb="1">
-      <t>chu'zhong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高中</t>
-    <rPh sb="0" eb="1">
-      <t>gao'zhong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一年级</t>
-    <rPh sb="0" eb="1">
-      <t>yi'nian'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <rPh sb="0" eb="1">
-      <t>er'nian'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年级</t>
-    <rPh sb="0" eb="1">
-      <t>san'nian'ji</t>
-    </rPh>
+    <t>联系方式(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监护人(必填)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -927,7 +934,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -953,40 +960,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1045,99 +1052,99 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1145,7 +1152,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -1153,7 +1160,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -1161,7 +1168,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -1169,7 +1176,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -1177,7 +1184,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -1185,7 +1192,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -1193,7 +1200,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -1201,7 +1208,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -1209,7 +1216,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -1217,7 +1224,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -1225,7 +1232,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -1233,7 +1240,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -1241,7 +1248,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -1249,7 +1256,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -1257,7 +1264,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -1265,7 +1272,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -1273,7 +1280,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -1281,7 +1288,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -1289,7 +1296,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -1297,7 +1304,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>26</v>
@@ -1305,7 +1312,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -1313,7 +1320,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -1321,7 +1328,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>29</v>
@@ -1329,7 +1336,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -1337,7 +1344,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -1345,7 +1352,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -1353,7 +1360,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -1361,7 +1368,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -1369,7 +1376,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -1377,7 +1384,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>38</v>
@@ -1385,7 +1392,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -1393,7 +1400,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -1401,7 +1408,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>41</v>
@@ -1409,7 +1416,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>42</v>
@@ -1417,7 +1424,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>43</v>
@@ -1425,7 +1432,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>44</v>
@@ -1433,7 +1440,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>45</v>
@@ -1441,7 +1448,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>46</v>
@@ -1449,7 +1456,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>47</v>
@@ -1457,7 +1464,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>48</v>
@@ -1465,7 +1472,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>49</v>
@@ -1473,7 +1480,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>50</v>
@@ -1481,7 +1488,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>51</v>
@@ -1489,7 +1496,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>52</v>
@@ -1497,7 +1504,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>53</v>
@@ -1505,7 +1512,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>54</v>
@@ -1513,7 +1520,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>55</v>
@@ -1521,7 +1528,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>56</v>

--- a/public/excel/templates/探索营名单导入模板.xlsx
+++ b/public/excel/templates/探索营名单导入模板.xlsx
@@ -934,7 +934,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -947,7 +947,8 @@
     <col min="10" max="10" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="5" customWidth="1"/>
     <col min="12" max="12" width="20" style="1" customWidth="1"/>
-    <col min="13" max="14" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -992,7 +993,7 @@
       <c r="L1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>79</v>
       </c>
     </row>

--- a/public/excel/templates/探索营名单导入模板.xlsx
+++ b/public/excel/templates/探索营名单导入模板.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>序号</t>
   </si>
@@ -592,6 +592,34 @@
   </si>
   <si>
     <t>监护人(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四年级</t>
+    <rPh sb="0" eb="1">
+      <t>si'nian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五年级</t>
+    <rPh sb="0" eb="1">
+      <t>wu'nian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六年级</t>
+    <rPh sb="0" eb="1">
+      <t>liu'nian'ji</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -934,7 +962,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1022,15 +1050,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>选项规则表!$H$1:$H$2</xm:f>
+            <xm:f>选项规则表!$I$1:$I$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>选项规则表!$I$1:$I$3</xm:f>
+            <xm:f>选项规则表!$H$1:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1043,7 +1071,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1062,7 +1090,7 @@
         <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s">
         <v>73</v>
@@ -1079,7 +1107,7 @@
         <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
         <v>74</v>
@@ -1095,6 +1123,9 @@
       <c r="F3" t="s">
         <v>60</v>
       </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
       <c r="I3" t="s">
         <v>75</v>
       </c>
@@ -1109,6 +1140,9 @@
       <c r="F4" t="s">
         <v>61</v>
       </c>
+      <c r="I4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -1120,6 +1154,9 @@
       <c r="F5" t="s">
         <v>62</v>
       </c>
+      <c r="I5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -1130,6 +1167,9 @@
       </c>
       <c r="F6" t="s">
         <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
